--- a/examples/sources/data/unsolved/to_schedule/2019-01-11.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -37,6 +37,27 @@
     <t>Fiscal</t>
   </si>
   <si>
+    <t>Querellante</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Riesgosa</t>
+  </si>
+  <si>
+    <t>Detenido</t>
+  </si>
+  <si>
+    <t>A la Tarde</t>
+  </si>
+  <si>
+    <t>Boulogne</t>
+  </si>
+  <si>
+    <t>Alma Fuerte</t>
+  </si>
+  <si>
     <t>Fecha de Pedido</t>
   </si>
   <si>
@@ -91,10 +112,19 @@
     <t xml:space="preserve">  Defensor Particular - MARCELO BIGLIERI</t>
   </si>
   <si>
+    <t>Querellante particular</t>
+  </si>
+  <si>
     <t>Manrique Olagaray Verónica Natalia (3ra. def.)</t>
   </si>
   <si>
+    <t xml:space="preserve">  Defensor Particular - Dr. Antonio BANO</t>
+  </si>
+  <si>
     <t xml:space="preserve">  Defensor Particular - Dr. Gonzalo Evangelista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensor Particular - DR. LAUTARO BRACHETTA</t>
   </si>
   <si>
     <t>Allisardi Federico (1ra. 4ta. circ.)</t>
@@ -480,13 +510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,13 +550,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>100585</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>827</v>
@@ -538,30 +589,45 @@
         <v>691</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>849</v>
       </c>
-      <c r="H2" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P2">
         <v>504</v>
       </c>
-      <c r="J2" s="2">
+      <c r="Q2" s="2">
         <v>43511</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>100586</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>823</v>
@@ -573,30 +639,45 @@
         <v>668</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>1231</v>
       </c>
-      <c r="H3" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P3">
         <v>458</v>
       </c>
-      <c r="J3" s="2">
+      <c r="Q3" s="2">
         <v>43483</v>
       </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>100587</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>823</v>
@@ -608,30 +689,45 @@
         <v>668</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>1231</v>
       </c>
-      <c r="H4" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P4">
         <v>458</v>
       </c>
-      <c r="J4" s="2">
+      <c r="Q4" s="2">
         <v>43483</v>
       </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>100588</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>820</v>
@@ -643,30 +739,45 @@
         <v>665</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>1316</v>
       </c>
-      <c r="H5" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P5">
         <v>456</v>
       </c>
-      <c r="J5" s="2">
+      <c r="Q5" s="2">
         <v>43479</v>
       </c>
-      <c r="K5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="R5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>100589</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>823</v>
@@ -678,30 +789,45 @@
         <v>668</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>1231</v>
       </c>
-      <c r="H6" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P6">
         <v>458</v>
       </c>
-      <c r="J6" s="2">
+      <c r="Q6" s="2">
         <v>43483</v>
       </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>100590</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>820</v>
@@ -713,30 +839,45 @@
         <v>323</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>1316</v>
       </c>
-      <c r="H7" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I7">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P7">
         <v>457</v>
       </c>
-      <c r="J7" s="2">
+      <c r="Q7" s="2">
         <v>43479</v>
       </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="R7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>100591</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>821</v>
@@ -748,21 +889,36 @@
         <v>391</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>1088</v>
       </c>
-      <c r="H8" s="2">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>100592</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>863</v>
@@ -774,30 +930,45 @@
         <v>1144</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>1098</v>
       </c>
-      <c r="H9" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P9">
         <v>451</v>
       </c>
-      <c r="J9" s="2">
+      <c r="Q9" s="2">
         <v>43503</v>
       </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>100593</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>820</v>
@@ -809,30 +980,45 @@
         <v>323</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>1180</v>
       </c>
-      <c r="H10" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P10">
         <v>503</v>
       </c>
-      <c r="J10" s="2">
+      <c r="Q10" s="2">
         <v>43480</v>
       </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>100594</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>823</v>
@@ -844,21 +1030,36 @@
         <v>1079</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>387</v>
       </c>
-      <c r="H11" s="2">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>100595</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>823</v>
@@ -870,30 +1071,45 @@
         <v>665</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>646</v>
       </c>
-      <c r="H12" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P12">
         <v>456</v>
       </c>
-      <c r="J12" s="2">
+      <c r="Q12" s="2">
         <v>43479</v>
       </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>100596</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>819</v>
@@ -905,21 +1121,36 @@
         <v>323</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>732</v>
       </c>
-      <c r="H13" s="2">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>100597</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>815</v>
@@ -931,135 +1162,342 @@
         <v>323</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>701</v>
       </c>
-      <c r="H14" s="2">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
+        <v>100597</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>815</v>
+      </c>
+      <c r="D15">
+        <v>351</v>
+      </c>
+      <c r="E15">
+        <v>562</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>701</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
         <v>100599</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
         <v>817</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>819</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>804</v>
       </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15">
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16">
         <v>825</v>
       </c>
-      <c r="H15" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I15">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P16">
         <v>498</v>
       </c>
-      <c r="J15" s="2">
+      <c r="Q16" s="2">
         <v>43481</v>
       </c>
-      <c r="K15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
+      <c r="R16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>100599</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>817</v>
+      </c>
+      <c r="D17">
+        <v>819</v>
+      </c>
+      <c r="E17">
+        <v>323</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>825</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P17">
+        <v>498</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>43481</v>
+      </c>
+      <c r="R17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
         <v>100600</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
         <v>821</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>462</v>
-      </c>
-      <c r="E16">
-        <v>323</v>
-      </c>
-      <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16">
-        <v>1086</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>100604</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>848</v>
-      </c>
-      <c r="D17">
-        <v>428</v>
-      </c>
-      <c r="E17">
-        <v>689</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17">
-        <v>1566</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>100605</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>815</v>
-      </c>
-      <c r="D18">
-        <v>819</v>
       </c>
       <c r="E18">
         <v>323</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G18">
+        <v>1086</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>100602</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>819</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>323</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>621</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>100604</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>848</v>
+      </c>
+      <c r="D20">
+        <v>428</v>
+      </c>
+      <c r="E20">
+        <v>689</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>1566</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>100605</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>815</v>
+      </c>
+      <c r="D21">
+        <v>819</v>
+      </c>
+      <c r="E21">
+        <v>323</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
         <v>836</v>
       </c>
-      <c r="H18" s="2">
-        <v>43476</v>
-      </c>
-      <c r="I18">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>43476</v>
+      </c>
+      <c r="P21">
         <v>498</v>
       </c>
-      <c r="J18" s="2">
+      <c r="Q21" s="2">
         <v>43483</v>
       </c>
-      <c r="K18" t="s">
-        <v>34</v>
+      <c r="R21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
